--- a/movEffect_weight.xlsx
+++ b/movEffect_weight.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1000" windowWidth="32740" windowHeight="21700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="21">
   <si>
     <t>EFFECT_TYPE__KALEIDOSCOPE</t>
   </si>
@@ -90,6 +90,15 @@
   <si>
     <t>//</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__MOSAIC</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__NOISE</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__SPHERE_MAPPING</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -172,171 +191,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -623,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection sqref="A1:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -641,9 +500,12 @@
     <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -651,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -685,8 +547,17 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -723,8 +594,17 @@
       <c r="L3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -735,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -761,8 +641,17 @@
       <c r="L4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -773,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -799,8 +688,17 @@
       <c r="L5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -811,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -837,8 +735,17 @@
       <c r="L6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -849,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -875,8 +782,17 @@
       <c r="L7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -887,19 +803,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -913,8 +829,17 @@
       <c r="L8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -925,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -951,8 +876,17 @@
       <c r="L9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -963,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -989,8 +923,17 @@
       <c r="L10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1025,16 +968,166 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/movEffect_weight.xlsx
+++ b/movEffect_weight.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="2120" yWindow="1860" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="44">
   <si>
     <t>EFFECT_TYPE__KALEIDOSCOPE</t>
   </si>
@@ -99,6 +99,93 @@
   </si>
   <si>
     <t>EFFECT_TYPE__SPHERE_MAPPING</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__MIRROR_LR</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__BOXES_MATRIX_TEXTURE</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__SPHERES_MATRIX_TEXTURE</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__CYLINDERS_MATRIX_TEXTURE</t>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__MIRROR_VERT</t>
+  </si>
+  <si>
+    <t>{0, true},</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KALEIDOSCOPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPHERE_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOX_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CYLINDER_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONE_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOXES_MATRIX_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPHERES_MATRIX_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CYLINDERS_MATRIX_TEXTURE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPLIT_2x2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPLIT_3x3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPLIT_5x5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARTICLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOSAIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOISE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPHERE_MAPPING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIRROR_LR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIRROR_VERT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -148,64 +235,484 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -482,30 +989,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection sqref="A1:O14"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -513,7 +1024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -521,43 +1032,58 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -592,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
@@ -601,10 +1127,25 @@
         <v>15</v>
       </c>
       <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -630,28 +1171,43 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
       </c>
       <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -677,28 +1233,43 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
       </c>
       <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -724,28 +1295,43 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
       <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -771,33 +1357,48 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
       </c>
       <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -806,28 +1407,28 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -836,15 +1437,30 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -853,28 +1469,28 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -883,15 +1499,30 @@
         <v>15</v>
       </c>
       <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -900,28 +1531,28 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -930,15 +1561,30 @@
         <v>15</v>
       </c>
       <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -968,24 +1614,39 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
         <v>14</v>
       </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1018,21 +1679,36 @@
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" t="s">
         <v>15</v>
       </c>
       <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1068,18 +1744,33 @@
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1119,16 +1810,397 @@
       </c>
       <c r="O14" t="s">
         <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="0">
+  <conditionalFormatting sqref="A20:XFD1048576 A1:XFD1 T2:XFD2 A2:R2 D18:J18 A11:J17 L11:S18 A3:S10 B19 U3:XFD18 D19:XFD19">
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="14" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K18">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",K11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",K11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T13 T15:T18">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",T3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",T3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",T14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",T14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/movEffect_weight.xlsx
+++ b/movEffect_weight.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="46">
   <si>
     <t>EFFECT_TYPE__KALEIDOSCOPE</t>
   </si>
@@ -185,6 +185,13 @@
   </si>
   <si>
     <t>MIRROR_VERT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EFFECT_TYPE__LINE_OFFSET_PERLINE</t>
+  </si>
+  <si>
+    <t>LINE_OFFSET_PERLINE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,107 +242,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <color auto="1"/>
@@ -989,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:T19"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1014,9 +921,10 @@
     <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +990,11 @@
       <c r="T2" t="s">
         <v>43</v>
       </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1144,8 +1055,11 @@
       <c r="T3" t="s">
         <v>15</v>
       </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1120,11 @@
       <c r="T4" t="s">
         <v>15</v>
       </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1268,8 +1185,11 @@
       <c r="T5" t="s">
         <v>15</v>
       </c>
+      <c r="U5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1330,8 +1250,11 @@
       <c r="T6" t="s">
         <v>15</v>
       </c>
+      <c r="U6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1392,8 +1315,11 @@
       <c r="T7" t="s">
         <v>15</v>
       </c>
+      <c r="U7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1454,8 +1380,11 @@
       <c r="T8" t="s">
         <v>15</v>
       </c>
+      <c r="U8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1516,8 +1445,11 @@
       <c r="T9" t="s">
         <v>15</v>
       </c>
+      <c r="U9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1578,8 +1510,11 @@
       <c r="T10" t="s">
         <v>15</v>
       </c>
+      <c r="U10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1640,8 +1575,11 @@
       <c r="T11" t="s">
         <v>15</v>
       </c>
+      <c r="U11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +1640,11 @@
       <c r="T12" t="s">
         <v>15</v>
       </c>
+      <c r="U12" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1764,8 +1705,11 @@
       <c r="T13" t="s">
         <v>15</v>
       </c>
+      <c r="U13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1826,8 +1770,11 @@
       <c r="T14" t="s">
         <v>14</v>
       </c>
+      <c r="U14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1888,8 +1835,11 @@
       <c r="T15" t="s">
         <v>15</v>
       </c>
+      <c r="U15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1950,8 +1900,11 @@
       <c r="T16" t="s">
         <v>15</v>
       </c>
+      <c r="U16" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2012,8 +1965,11 @@
       <c r="T17" t="s">
         <v>15</v>
       </c>
+      <c r="U17" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2074,8 +2030,11 @@
       <c r="T18" t="s">
         <v>15</v>
       </c>
+      <c r="U18" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2135,72 +2094,172 @@
       </c>
       <c r="T19" t="s">
         <v>26</v>
+      </c>
+      <c r="U19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A20:XFD1048576 A1:XFD1 T2:XFD2 A2:R2 D18:J18 A11:J17 L11:S18 A3:S10 B19 U3:XFD18 D19:XFD19">
-    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="false">
+  <conditionalFormatting sqref="A21:XFD1048576 A1:XFD1 A2:R2 D18:J18 A11:J17 L11:S18 A3:S10 B19:B20 T2:XFD2 D20:XFD20 D19:T19 V3:XFD19">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="36" priority="24" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",A18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="14" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K18">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T13 T15:T18">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",T14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",T14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U13 U15:U19">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",U3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",U3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",T14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("false",U14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",T14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("0",U14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
